--- a/biology/Botanique/Carex_de_Ross/Carex_de_Ross.xlsx
+++ b/biology/Botanique/Carex_de_Ross/Carex_de_Ross.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carex rossii ou Carex brevipes ou Carex diversistylis est une espèce de plantes du genre Carex et de la famille des Cyperaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est présente dans une grande partie centrale et occidentale de l'Amérique du Nord. À l'ouest, elle est présente de la Californie jusqu'en Alaska. Plus à l'est, elle est présente du Nouveau-Mexique jusqu'en Ontario[2]. La plante apprécie aussi bien les milieux humides que secs dans les zones boisées en climat tempéré, dans les prairies, dans les alpages ou dans les milieux secs couverts d'arbustes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est présente dans une grande partie centrale et occidentale de l'Amérique du Nord. À l'ouest, elle est présente de la Californie jusqu'en Alaska. Plus à l'est, elle est présente du Nouveau-Mexique jusqu'en Ontario. La plante apprécie aussi bien les milieux humides que secs dans les zones boisées en climat tempéré, dans les prairies, dans les alpages ou dans les milieux secs couverts d'arbustes.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante produit une tige pouvant atteindre 40 centimètres de haut à partir d'un réseau dense de rhizomes. Les feuilles sont vert foncé et de grandes tailles.
 </t>
